--- a/Product Burndown chart.xlsx
+++ b/Product Burndown chart.xlsx
@@ -11,12 +11,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Time(days)</t>
   </si>
   <si>
     <t>Total number fo hours needed to complete the tasks</t>
+  </si>
+  <si>
+    <t>Hours of work done</t>
   </si>
   <si>
     <t>Initial</t>
@@ -94,13 +97,13 @@
             <a:pPr lvl="0">
               <a:defRPr b="0">
                 <a:solidFill>
-                  <a:srgbClr val="757575"/>
+                  <a:srgbClr val="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t>Total number fo hours needed to complete the tasks</a:t>
+              <a:t>Product burndown chart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -110,7 +113,6 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -134,11 +136,34 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1813159380"/>
-        <c:axId val="873395278"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$1</c:f>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$6</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$6</c:f>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="1763150927"/>
+        <c:axId val="22509940"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1813159380"/>
+        <c:axId val="1763150927"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -180,10 +205,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="873395278"/>
+        <c:crossAx val="22509940"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="873395278"/>
+        <c:axId val="22509940"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -193,7 +218,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="B7B7B7"/>
+                <a:srgbClr val="B7B7B7">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -202,7 +229,9 @@
           <c:spPr>
             <a:ln>
               <a:solidFill>
-                <a:srgbClr val="CCCCCC"/>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
               </a:solidFill>
             </a:ln>
           </c:spPr>
@@ -222,7 +251,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:t>Total number fo hours needed to complete the tasks</a:t>
+                  <a:t/>
                 </a:r>
               </a:p>
             </c:rich>
@@ -250,7 +279,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1813159380"/>
+        <c:crossAx val="1763150927"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -280,10 +309,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1152525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -520,42 +549,54 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1">
+        <v>110.0</v>
+      </c>
+      <c r="C2" s="2">
         <v>110.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" s="1">
         <v>80.0</v>
+      </c>
+      <c r="C3" s="2">
+        <v>95.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B4" s="1">
+        <v>40.0</v>
+      </c>
+      <c r="C4" s="1">
         <v>40.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B5" s="1">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B6" s="2">
         <v>0.0</v>
